--- a/pages/fa18_1.xlsx
+++ b/pages/fa18_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\dcs-vjoy\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6552A-47B2-45BC-B3C8-554D45ED9CD0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C41B8D3-8185-46C6-8ADF-614EF1369254}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5145" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fa18_1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="3">
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -56,13 +62,31 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -156,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,13 +201,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +610,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,78 +644,131 @@
         <v>0</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="D5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
